--- a/files/06-09-2023.xlsx
+++ b/files/06-09-2023.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>title</t>
   </si>
@@ -28,7 +28,7 @@
     <t>https://trial-sport.ru/goods/761611/2838116.html</t>
   </si>
   <si>
-    <t>//div[@class='prices_for_popup']//div//div[@class='price']</t>
+    <t>//div[@class='prices_for_popup']//div//div[@class='price']/text()</t>
   </si>
   <si>
     <t>runlab.ru</t>
@@ -37,23 +37,32 @@
     <t>https://www.runlab.ru/p-velocity_nitro_2_434/</t>
   </si>
   <si>
-    <t>//div[@class='not-small-mobile']//div[@class='product-price-block m15']</t>
-  </si>
-  <si>
-    <t>megamarket.ru</t>
-  </si>
-  <si>
-    <t>https://megamarket.ru/catalog/details/krossovki-muzhskie-salomon-hypulse-dazzling-sinie-85-uk-100047417345_3208/</t>
-  </si>
-  <si>
-    <t>//span[@class='pdp-sales-block__price-final']</t>
+    <t>//div[@class='not-small-mobile']//div[@class='product-price-block m15']/text()</t>
+  </si>
+  <si>
+    <t>sport-marafon.ru</t>
+  </si>
+  <si>
+    <t>https://sport-marafon.ru/catalog/muzhskie-begovye-krossovki/krossovki-muzhskie-asics-gel-kayano-29-deep-ocean-cherry-tomato/</t>
+  </si>
+  <si>
+    <t>//div[@class='catalog-detail__price catalog-detail__price_new']/text()</t>
+  </si>
+  <si>
+    <t>five-sport.ru</t>
+  </si>
+  <si>
+    <t>https://www.five-sport.ru/product/muzhskie-krossovki-dlya-bega-anta-a-shock-chernye</t>
+  </si>
+  <si>
+    <t>//div[@class='price js-product-price']/text()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -64,10 +73,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -88,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -99,9 +104,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -320,8 +322,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="56.75"/>
-    <col customWidth="1" min="3" max="3" width="53.13"/>
+    <col customWidth="1" min="1" max="1" width="19.38"/>
+    <col customWidth="1" min="2" max="2" width="80.0"/>
+    <col customWidth="1" min="3" max="3" width="59.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -358,7 +361,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -366,14 +369,25 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
